--- a/Exc2/Проверочный лист для аудита ИБ.xlsx
+++ b/Exc2/Проверочный лист для аудита ИБ.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="74">
   <si>
     <t>№</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>Доступ в систему для клиентов и собственников осуществляется через межсетевой экран (firewall)</t>
+  </si>
+  <si>
+    <t>Data Governance объемный подход и безопасность лишь один из аспектов. Тут оно бы больше подошло для решения будущих задач по AI/BI/итп</t>
   </si>
 </sst>
 </file>
@@ -444,7 +447,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -540,6 +543,14 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection/>
     </xf>
   </cellXfs>
@@ -843,7 +854,7 @@
   <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A59">
-      <selection pane="topLeft" activeCell="K61" sqref="K61"/>
+      <selection pane="topLeft" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5042857142857" defaultRowHeight="12.75"/>
@@ -1174,7 +1185,7 @@
       </c>
       <c r="F27" s="25"/>
     </row>
-    <row r="28" spans="3:6" ht="55.5" customHeight="1">
+    <row r="28" spans="3:6" ht="51" customHeight="1">
       <c r="C28" s="22">
         <v>9</v>
       </c>
@@ -1184,7 +1195,9 @@
       <c r="E28" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="F28" s="25"/>
+      <c r="F28" s="31" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="29" spans="3:6" ht="51.75" customHeight="1">
       <c r="C29" s="22">
@@ -1264,7 +1277,7 @@
       <c r="E35" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="F35" s="24" t="s">
+      <c r="F35" s="23" t="s">
         <v>72</v>
       </c>
     </row>
